--- a/_data/Syllabus.xlsx
+++ b/_data/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg.ryslik/personalRepos/OSU/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4A100-F62B-8543-A41E-40FDC4D573B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBD560-FFCC-CE44-9056-497383A42E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-74020" yWindow="-11480" windowWidth="47500" windowHeight="24500" xr2:uid="{DE38FA10-6465-D545-92BA-8AB89C1CB985}"/>
   </bookViews>
@@ -1054,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1F1D59-BDDB-1F49-AD29-AEA302336D29}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
     <col min="8" max="8" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1138,13 +1138,10 @@
         <v>Mon</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1161,11 +1158,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="L4">
-        <v>191958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1182,14 +1179,8 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1204,10 +1195,16 @@
         <v>Wed</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1224,14 +1221,8 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1248,11 +1239,14 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1269,14 +1263,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1291,10 +1282,16 @@
         <v>Wed</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1310,10 +1307,10 @@
         <v>Mon</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1329,16 +1326,10 @@
         <v>Wed</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1356,8 +1347,14 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1375,11 +1372,8 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1395,13 +1389,13 @@
         <v>Mon</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1417,7 +1411,10 @@
         <v>Wed</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1438,12 +1435,6 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1463,6 +1454,12 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1499,13 +1496,7 @@
         <v>Wed</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1525,6 +1516,12 @@
       </c>
       <c r="E21" t="s">
         <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/_data/Syllabus.xlsx
+++ b/_data/Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg.ryslik/personalRepos/OSU/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grysli01/personalRepos/cse2321/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBD560-FFCC-CE44-9056-497383A42E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846D652-5D4A-3448-A582-1AC578A8135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-74020" yWindow="-11480" windowWidth="47500" windowHeight="24500" xr2:uid="{DE38FA10-6465-D545-92BA-8AB89C1CB985}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="19800" windowHeight="18000" xr2:uid="{DE38FA10-6465-D545-92BA-8AB89C1CB985}"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Class</t>
   </si>
@@ -140,56 +140,56 @@
     <t>HW 10</t>
   </si>
   <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797782"&gt; HW1 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797784"&gt; HW2 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797785"&gt; HW3 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797786"&gt; HW4 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797787"&gt; HW5 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797788"&gt; HW6 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797789"&gt; HW7 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797790"&gt; HW8&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797791"&gt; HW9&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href= "https://osu.instructure.com/courses/191958/assignments/4797783"&gt; HW10&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href =  "https://osu.instructure.com/files/78822115"&gt; Logic 1  &lt;/a&gt; &lt;br&gt; 
-2. &lt;a href =  "https://osu.instructure.com/files/78822145"&gt; Logic 2 &lt;/a&gt; &lt;br&gt;
-3. &lt;a href =  "https://osu.instructure.com/files/78822116"&gt; Proof Methods &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href =  "https://osu.instructure.com/files/78822117"&gt; Set Theory 1  &lt;/a&gt; &lt;br&gt; 
-2. &lt;a href =  "https://osu.instructure.com/files/78822148"&gt; Set Theory 2 &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href ="https://osu.instructure.com/files/78822131"&gt; Algorithms  &lt;/a&gt; &lt;br&gt; 
-2. &lt;a href =  "https://osu.instructure.com/files/78822121"&gt; Asymptotic Behavior &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href ="https://osu.instructure.com/files/78822143"&gt; Induction  &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href =  "https://osu.instructure.com/files/78822125"&gt; Recursion &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1. &lt;a href =  "https://osu.instructure.com/files/78822144"&gt; Graph Algorithms&lt;/a&gt;</t>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234201"&gt; HW1 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234203"&gt; HW2 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234204"&gt; HW3 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234205"&gt; HW4 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234206"&gt; HW5 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234207"&gt; HW6 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234208"&gt; HW7 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234209"&gt; HW8&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234210"&gt; HW9&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href= "https://osu.instructure.com/courses/205581/assignments/5234202"&gt; HW10&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href =  "https://osu.instructure.com/files/85722265"&gt; Logic 1  &lt;/a&gt; &lt;br&gt; 
+2. &lt;a href =  "https://osu.instructure.com/files/85722294"&gt; Logic 2 &lt;/a&gt; &lt;br&gt;
+3. &lt;a href =  "https://osu.instructure.com/files/85722266"&gt; Proof Methods &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href =  "https://osu.instructure.com/files/85722267"&gt; Set Theory 1  &lt;/a&gt; &lt;br&gt; 
+2. &lt;a href =  "https://osu.instructure.com/files/85722288"&gt; Set Theory 2 &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href ="https://osu.instructure.com/files/85722281"&gt; Algorithms  &lt;/a&gt; &lt;br&gt; 
+2. &lt;a href =  "https://osu.instructure.com/files/85722270"&gt; Asymptotic Behavior &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href ="https://osu.instructure.com/files/85722295"&gt; Induction  &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href =  "https://osu.instructure.com/files/85722276"&gt; Recursion &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. &lt;a href =  "https://osu.instructure.com/files/85722296"&gt; Graph Algorithms&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1056,16 +1056,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1F1D59-BDDB-1F49-AD29-AEA302336D29}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="55.1640625" customWidth="1"/>
     <col min="8" max="8" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,11 +1111,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>45896</v>
+        <v>46034</v>
       </c>
       <c r="D2" t="str">
         <f>TEXT(C2,"ddd")</f>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1131,14 +1132,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>45901</v>
+        <f>IF(MOD(A3,2)=0,C2+2,C2+5)</f>
+        <v>46036</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D32" si="0">TEXT(C3,"ddd")</f>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1149,17 +1154,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>45903</v>
+        <f t="shared" ref="C4:C32" si="1">IF(MOD(A4,2)=0,C3+2,C3+5)</f>
+        <v>46041</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1170,11 +1173,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>45908</v>
+        <f t="shared" si="1"/>
+        <v>46043</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1188,11 +1192,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>45910</v>
+        <f t="shared" si="1"/>
+        <v>46048</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1212,11 +1217,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>45915</v>
+        <f t="shared" si="1"/>
+        <v>46050</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1230,11 +1236,12 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>45917</v>
+        <f t="shared" si="1"/>
+        <v>46055</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1254,11 +1261,12 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45922</v>
+        <f t="shared" si="1"/>
+        <v>46057</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1275,11 +1283,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45924</v>
+        <f t="shared" si="1"/>
+        <v>46062</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1300,11 +1309,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>45929</v>
+        <f t="shared" si="1"/>
+        <v>46064</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1319,14 +1329,18 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>45931</v>
+        <f t="shared" si="1"/>
+        <v>46069</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1334,21 +1348,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B32" si="1">FLOOR(A13/2,1)+1</f>
+        <f t="shared" ref="B13:B32" si="2">FLOOR(A13/2,1)+1</f>
         <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>45936</v>
+        <f t="shared" si="1"/>
+        <v>46071</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>47</v>
@@ -1359,18 +1371,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>45938</v>
+        <f t="shared" si="1"/>
+        <v>46076</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1378,21 +1394,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>45943</v>
+        <f t="shared" si="1"/>
+        <v>46078</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1400,18 +1414,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <v>45945</v>
+        <f t="shared" si="1"/>
+        <v>46083</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
@@ -1422,15 +1443,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <v>45950</v>
+        <f t="shared" si="1"/>
+        <v>46085</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1441,24 +1463,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C18" s="2">
-        <v>45952</v>
+        <f t="shared" si="1"/>
+        <v>46090</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1466,15 +1489,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>45957</v>
+        <f t="shared" si="1"/>
+        <v>46092</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1485,18 +1509,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>45959</v>
+        <f t="shared" si="1"/>
+        <v>46097</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1504,24 +1529,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>45964</v>
+        <f t="shared" si="1"/>
+        <v>46099</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1529,18 +1549,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>45966</v>
+        <f t="shared" si="1"/>
+        <v>46104</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
@@ -1554,24 +1578,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>45971</v>
+        <f t="shared" si="1"/>
+        <v>46106</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1579,21 +1601,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C24" s="2">
-        <v>45973</v>
+        <f t="shared" si="1"/>
+        <v>46111</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1601,18 +1621,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>45978</v>
+        <f t="shared" si="1"/>
+        <v>46113</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1620,21 +1644,25 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>45980</v>
+        <f t="shared" si="1"/>
+        <v>46118</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1642,24 +1670,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>45985</v>
+        <f t="shared" si="1"/>
+        <v>46120</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
+      <c r="F27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1667,21 +1693,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>45987</v>
+        <f t="shared" si="1"/>
+        <v>46125</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
-        <v>43</v>
+      <c r="G28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,18 +1716,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>45992</v>
+        <f t="shared" si="1"/>
+        <v>46127</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,24 +1739,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>45994</v>
+        <f t="shared" si="1"/>
+        <v>46132</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1733,18 +1759,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>45999</v>
+        <f t="shared" si="1"/>
+        <v>46134</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1752,21 +1782,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>46001</v>
+        <f t="shared" si="1"/>
+        <v>46139</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
